--- a/Code/southpuget-trial-data.xlsx
+++ b/Code/southpuget-trial-data.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e4b9ad30e75dec31/Courses/Documents/GitHub/ACO-drone-firefighting/Code/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_53409FC7096A8FAEE6927ADC7800109EE0074FF2" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2A034DBE-BBCB-41CD-B33B-35A243C84DBB}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
-    <sheet name="trial5" sheetId="2" r:id="rId3"/>
+    <sheet name="trial5" sheetId="2" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="675">
   <si>
     <t>Drone #1_1</t>
   </si>
@@ -22,6 +28,546 @@
     <t>Drone #1_2</t>
   </si>
   <si>
+    <t>Drone #2_1</t>
+  </si>
+  <si>
+    <t>Drone #2_2</t>
+  </si>
+  <si>
+    <t>Drone #2_3</t>
+  </si>
+  <si>
+    <t>Drone #3_1</t>
+  </si>
+  <si>
+    <t>Drone #3_2</t>
+  </si>
+  <si>
+    <t>Drone #3_3</t>
+  </si>
+  <si>
+    <t>Drone #3_4</t>
+  </si>
+  <si>
+    <t>Drone #3_5</t>
+  </si>
+  <si>
+    <t>Drone #3_6</t>
+  </si>
+  <si>
+    <t>Drone #4_1</t>
+  </si>
+  <si>
+    <t>Drone #4_2</t>
+  </si>
+  <si>
+    <t>Drone #4_3</t>
+  </si>
+  <si>
+    <t>Drone #4_4</t>
+  </si>
+  <si>
+    <t>Drone #5_1</t>
+  </si>
+  <si>
+    <t>Drone #5_2</t>
+  </si>
+  <si>
+    <t>Drone #5_3</t>
+  </si>
+  <si>
+    <t>Drone #5_4</t>
+  </si>
+  <si>
+    <t>Drone #1</t>
+  </si>
+  <si>
+    <t>Drone #2</t>
+  </si>
+  <si>
+    <t>Drone #3</t>
+  </si>
+  <si>
+    <t>Drone #4</t>
+  </si>
+  <si>
+    <t>Drone #5</t>
+  </si>
+  <si>
+    <t>Drone #1</t>
+  </si>
+  <si>
+    <t>Drone #2</t>
+  </si>
+  <si>
+    <t>Drone #3</t>
+  </si>
+  <si>
+    <t>Drone #4</t>
+  </si>
+  <si>
+    <t>Drone #5</t>
+  </si>
+  <si>
+    <t>Fire #1</t>
+  </si>
+  <si>
+    <t>Fire #2</t>
+  </si>
+  <si>
+    <t>Fire #3</t>
+  </si>
+  <si>
+    <t>Fire #4</t>
+  </si>
+  <si>
+    <t>Fire #5</t>
+  </si>
+  <si>
+    <t>Fire #6</t>
+  </si>
+  <si>
+    <t>Fire #7</t>
+  </si>
+  <si>
+    <t>Fire #8</t>
+  </si>
+  <si>
+    <t>Fire #9</t>
+  </si>
+  <si>
+    <t>Fire #10</t>
+  </si>
+  <si>
+    <t>Fire #11</t>
+  </si>
+  <si>
+    <t>Fire #12</t>
+  </si>
+  <si>
+    <t>Fire #13</t>
+  </si>
+  <si>
+    <t>Fire #14</t>
+  </si>
+  <si>
+    <t>Fire #15</t>
+  </si>
+  <si>
+    <t>timeElapsed</t>
+  </si>
+  <si>
+    <t>Drone #1_1</t>
+  </si>
+  <si>
+    <t>Drone #1_2</t>
+  </si>
+  <si>
+    <t>Drone #2_1</t>
+  </si>
+  <si>
+    <t>Drone #2_2</t>
+  </si>
+  <si>
+    <t>Drone #2_3</t>
+  </si>
+  <si>
+    <t>Drone #2_4</t>
+  </si>
+  <si>
+    <t>Drone #3_1</t>
+  </si>
+  <si>
+    <t>Drone #3_2</t>
+  </si>
+  <si>
+    <t>Drone #3_3</t>
+  </si>
+  <si>
+    <t>Drone #3_4</t>
+  </si>
+  <si>
+    <t>Drone #3_5</t>
+  </si>
+  <si>
+    <t>Drone #3_6</t>
+  </si>
+  <si>
+    <t>Drone #4_1</t>
+  </si>
+  <si>
+    <t>Drone #4_2</t>
+  </si>
+  <si>
+    <t>Drone #4_3</t>
+  </si>
+  <si>
+    <t>Drone #4_4</t>
+  </si>
+  <si>
+    <t>Drone #5_1</t>
+  </si>
+  <si>
+    <t>Drone #5_2</t>
+  </si>
+  <si>
+    <t>Drone #5_3</t>
+  </si>
+  <si>
+    <t>Drone #1</t>
+  </si>
+  <si>
+    <t>Drone #2</t>
+  </si>
+  <si>
+    <t>Drone #3</t>
+  </si>
+  <si>
+    <t>Drone #4</t>
+  </si>
+  <si>
+    <t>Drone #5</t>
+  </si>
+  <si>
+    <t>Drone #1</t>
+  </si>
+  <si>
+    <t>Drone #2</t>
+  </si>
+  <si>
+    <t>Drone #3</t>
+  </si>
+  <si>
+    <t>Drone #4</t>
+  </si>
+  <si>
+    <t>Drone #5</t>
+  </si>
+  <si>
+    <t>Fire #1</t>
+  </si>
+  <si>
+    <t>Fire #2</t>
+  </si>
+  <si>
+    <t>Fire #3</t>
+  </si>
+  <si>
+    <t>Fire #4</t>
+  </si>
+  <si>
+    <t>Fire #5</t>
+  </si>
+  <si>
+    <t>Fire #6</t>
+  </si>
+  <si>
+    <t>Fire #7</t>
+  </si>
+  <si>
+    <t>Fire #8</t>
+  </si>
+  <si>
+    <t>Fire #9</t>
+  </si>
+  <si>
+    <t>Fire #10</t>
+  </si>
+  <si>
+    <t>Fire #11</t>
+  </si>
+  <si>
+    <t>Fire #12</t>
+  </si>
+  <si>
+    <t>Fire #13</t>
+  </si>
+  <si>
+    <t>Fire #14</t>
+  </si>
+  <si>
+    <t>Fire #15</t>
+  </si>
+  <si>
+    <t>timeElapsed</t>
+  </si>
+  <si>
+    <t>Drone #1_1</t>
+  </si>
+  <si>
+    <t>Drone #1_2</t>
+  </si>
+  <si>
+    <t>Drone #2_1</t>
+  </si>
+  <si>
+    <t>Drone #2_2</t>
+  </si>
+  <si>
+    <t>Drone #2_3</t>
+  </si>
+  <si>
+    <t>Drone #2_4</t>
+  </si>
+  <si>
+    <t>Drone #2_5</t>
+  </si>
+  <si>
+    <t>Drone #2_6</t>
+  </si>
+  <si>
+    <t>Drone #3_1</t>
+  </si>
+  <si>
+    <t>Drone #3_2</t>
+  </si>
+  <si>
+    <t>Drone #3_3</t>
+  </si>
+  <si>
+    <t>Drone #4_1</t>
+  </si>
+  <si>
+    <t>Drone #4_2</t>
+  </si>
+  <si>
+    <t>Drone #4_3</t>
+  </si>
+  <si>
+    <t>Drone #4_4</t>
+  </si>
+  <si>
+    <t>Drone #5_1</t>
+  </si>
+  <si>
+    <t>Drone #5_2</t>
+  </si>
+  <si>
+    <t>Drone #5_3</t>
+  </si>
+  <si>
+    <t>Drone #5_4</t>
+  </si>
+  <si>
+    <t>Drone #1</t>
+  </si>
+  <si>
+    <t>Drone #2</t>
+  </si>
+  <si>
+    <t>Drone #3</t>
+  </si>
+  <si>
+    <t>Drone #4</t>
+  </si>
+  <si>
+    <t>Drone #5</t>
+  </si>
+  <si>
+    <t>Drone #1</t>
+  </si>
+  <si>
+    <t>Drone #2</t>
+  </si>
+  <si>
+    <t>Drone #3</t>
+  </si>
+  <si>
+    <t>Drone #4</t>
+  </si>
+  <si>
+    <t>Drone #5</t>
+  </si>
+  <si>
+    <t>Fire #1</t>
+  </si>
+  <si>
+    <t>Fire #2</t>
+  </si>
+  <si>
+    <t>Fire #3</t>
+  </si>
+  <si>
+    <t>Fire #4</t>
+  </si>
+  <si>
+    <t>Fire #5</t>
+  </si>
+  <si>
+    <t>Fire #6</t>
+  </si>
+  <si>
+    <t>Fire #7</t>
+  </si>
+  <si>
+    <t>Fire #8</t>
+  </si>
+  <si>
+    <t>Fire #9</t>
+  </si>
+  <si>
+    <t>Fire #10</t>
+  </si>
+  <si>
+    <t>Fire #11</t>
+  </si>
+  <si>
+    <t>Fire #12</t>
+  </si>
+  <si>
+    <t>Fire #13</t>
+  </si>
+  <si>
+    <t>Fire #14</t>
+  </si>
+  <si>
+    <t>Fire #15</t>
+  </si>
+  <si>
+    <t>timeElapsed</t>
+  </si>
+  <si>
+    <t>Drone #1_1</t>
+  </si>
+  <si>
+    <t>Drone #1_2</t>
+  </si>
+  <si>
+    <t>Drone #2_1</t>
+  </si>
+  <si>
+    <t>Drone #2_2</t>
+  </si>
+  <si>
+    <t>Drone #2_3</t>
+  </si>
+  <si>
+    <t>Drone #2_4</t>
+  </si>
+  <si>
+    <t>Drone #2_5</t>
+  </si>
+  <si>
+    <t>Drone #2_6</t>
+  </si>
+  <si>
+    <t>Drone #3_1</t>
+  </si>
+  <si>
+    <t>Drone #3_2</t>
+  </si>
+  <si>
+    <t>Drone #3_3</t>
+  </si>
+  <si>
+    <t>Drone #3_4</t>
+  </si>
+  <si>
+    <t>Drone #4_1</t>
+  </si>
+  <si>
+    <t>Drone #4_2</t>
+  </si>
+  <si>
+    <t>Drone #4_3</t>
+  </si>
+  <si>
+    <t>Drone #4_4</t>
+  </si>
+  <si>
+    <t>Drone #4_5</t>
+  </si>
+  <si>
+    <t>Drone #5_1</t>
+  </si>
+  <si>
+    <t>Drone #5_2</t>
+  </si>
+  <si>
+    <t>Drone #1</t>
+  </si>
+  <si>
+    <t>Drone #2</t>
+  </si>
+  <si>
+    <t>Drone #3</t>
+  </si>
+  <si>
+    <t>Drone #4</t>
+  </si>
+  <si>
+    <t>Drone #5</t>
+  </si>
+  <si>
+    <t>Drone #1</t>
+  </si>
+  <si>
+    <t>Drone #2</t>
+  </si>
+  <si>
+    <t>Drone #3</t>
+  </si>
+  <si>
+    <t>Drone #4</t>
+  </si>
+  <si>
+    <t>Drone #5</t>
+  </si>
+  <si>
+    <t>Fire #1</t>
+  </si>
+  <si>
+    <t>Fire #2</t>
+  </si>
+  <si>
+    <t>Fire #3</t>
+  </si>
+  <si>
+    <t>Fire #4</t>
+  </si>
+  <si>
+    <t>Fire #5</t>
+  </si>
+  <si>
+    <t>Fire #6</t>
+  </si>
+  <si>
+    <t>Fire #7</t>
+  </si>
+  <si>
+    <t>Fire #8</t>
+  </si>
+  <si>
+    <t>Fire #9</t>
+  </si>
+  <si>
+    <t>Fire #10</t>
+  </si>
+  <si>
+    <t>Fire #11</t>
+  </si>
+  <si>
+    <t>Fire #12</t>
+  </si>
+  <si>
+    <t>Fire #13</t>
+  </si>
+  <si>
+    <t>Fire #14</t>
+  </si>
+  <si>
+    <t>Fire #15</t>
+  </si>
+  <si>
+    <t>timeElapsed</t>
+  </si>
+  <si>
+    <t>Drone #1_1</t>
+  </si>
+  <si>
+    <t>Drone #1_2</t>
+  </si>
+  <si>
     <t>Drone #1_3</t>
   </si>
   <si>
@@ -49,9 +595,150 @@
     <t>Drone #3_3</t>
   </si>
   <si>
+    <t>Drone #4_1</t>
+  </si>
+  <si>
+    <t>Drone #4_2</t>
+  </si>
+  <si>
+    <t>Drone #4_3</t>
+  </si>
+  <si>
+    <t>Drone #4_4</t>
+  </si>
+  <si>
+    <t>Drone #5_1</t>
+  </si>
+  <si>
+    <t>Drone #5_2</t>
+  </si>
+  <si>
+    <t>Drone #5_3</t>
+  </si>
+  <si>
+    <t>Drone #5_4</t>
+  </si>
+  <si>
+    <t>Drone #1</t>
+  </si>
+  <si>
+    <t>Drone #2</t>
+  </si>
+  <si>
+    <t>Drone #3</t>
+  </si>
+  <si>
+    <t>Drone #4</t>
+  </si>
+  <si>
+    <t>Drone #5</t>
+  </si>
+  <si>
+    <t>Drone #1</t>
+  </si>
+  <si>
+    <t>Drone #2</t>
+  </si>
+  <si>
+    <t>Drone #3</t>
+  </si>
+  <si>
+    <t>Drone #4</t>
+  </si>
+  <si>
+    <t>Drone #5</t>
+  </si>
+  <si>
+    <t>Fire #1</t>
+  </si>
+  <si>
+    <t>Fire #2</t>
+  </si>
+  <si>
+    <t>Fire #3</t>
+  </si>
+  <si>
+    <t>Fire #4</t>
+  </si>
+  <si>
+    <t>Fire #5</t>
+  </si>
+  <si>
+    <t>Fire #6</t>
+  </si>
+  <si>
+    <t>Fire #7</t>
+  </si>
+  <si>
+    <t>Fire #8</t>
+  </si>
+  <si>
+    <t>Fire #9</t>
+  </si>
+  <si>
+    <t>Fire #10</t>
+  </si>
+  <si>
+    <t>Fire #11</t>
+  </si>
+  <si>
+    <t>Fire #12</t>
+  </si>
+  <si>
+    <t>Fire #13</t>
+  </si>
+  <si>
+    <t>Fire #14</t>
+  </si>
+  <si>
+    <t>Fire #15</t>
+  </si>
+  <si>
+    <t>timeElapsed</t>
+  </si>
+  <si>
+    <t>Drone #1_1</t>
+  </si>
+  <si>
+    <t>Drone #1_2</t>
+  </si>
+  <si>
+    <t>Drone #1_3</t>
+  </si>
+  <si>
+    <t>Drone #1_4</t>
+  </si>
+  <si>
+    <t>Drone #1_5</t>
+  </si>
+  <si>
+    <t>Drone #2_1</t>
+  </si>
+  <si>
+    <t>Drone #2_2</t>
+  </si>
+  <si>
+    <t>Drone #2_3</t>
+  </si>
+  <si>
+    <t>Drone #2_4</t>
+  </si>
+  <si>
+    <t>Drone #3_1</t>
+  </si>
+  <si>
+    <t>Drone #3_2</t>
+  </si>
+  <si>
+    <t>Drone #3_3</t>
+  </si>
+  <si>
     <t>Drone #3_4</t>
   </si>
   <si>
+    <t>Drone #3_5</t>
+  </si>
+  <si>
     <t>Drone #4_1</t>
   </si>
   <si>
@@ -64,15 +751,954 @@
     <t>Drone #4_4</t>
   </si>
   <si>
+    <t>Drone #5</t>
+  </si>
+  <si>
+    <t>Drone #1</t>
+  </si>
+  <si>
+    <t>Drone #2</t>
+  </si>
+  <si>
+    <t>Drone #3</t>
+  </si>
+  <si>
+    <t>Drone #4</t>
+  </si>
+  <si>
+    <t>Drone #5</t>
+  </si>
+  <si>
+    <t>Drone #1</t>
+  </si>
+  <si>
+    <t>Drone #2</t>
+  </si>
+  <si>
+    <t>Drone #3</t>
+  </si>
+  <si>
+    <t>Drone #4</t>
+  </si>
+  <si>
+    <t>Drone #5</t>
+  </si>
+  <si>
+    <t>Fire #1</t>
+  </si>
+  <si>
+    <t>Fire #2</t>
+  </si>
+  <si>
+    <t>Fire #3</t>
+  </si>
+  <si>
+    <t>Fire #4</t>
+  </si>
+  <si>
+    <t>Fire #5</t>
+  </si>
+  <si>
+    <t>Fire #6</t>
+  </si>
+  <si>
+    <t>Fire #7</t>
+  </si>
+  <si>
+    <t>Fire #8</t>
+  </si>
+  <si>
+    <t>Fire #9</t>
+  </si>
+  <si>
+    <t>Fire #10</t>
+  </si>
+  <si>
+    <t>Fire #11</t>
+  </si>
+  <si>
+    <t>Fire #12</t>
+  </si>
+  <si>
+    <t>Fire #13</t>
+  </si>
+  <si>
+    <t>Fire #14</t>
+  </si>
+  <si>
+    <t>Fire #15</t>
+  </si>
+  <si>
+    <t>timeElapsed</t>
+  </si>
+  <si>
+    <t>Drone #1_1</t>
+  </si>
+  <si>
+    <t>Drone #1_2</t>
+  </si>
+  <si>
+    <t>Drone #1_3</t>
+  </si>
+  <si>
+    <t>Drone #1_4</t>
+  </si>
+  <si>
+    <t>Drone #1_5</t>
+  </si>
+  <si>
+    <t>Drone #2_1</t>
+  </si>
+  <si>
+    <t>Drone #2_2</t>
+  </si>
+  <si>
+    <t>Drone #2_3</t>
+  </si>
+  <si>
+    <t>Drone #2_4</t>
+  </si>
+  <si>
+    <t>Drone #3_1</t>
+  </si>
+  <si>
+    <t>Drone #3_2</t>
+  </si>
+  <si>
+    <t>Drone #3_3</t>
+  </si>
+  <si>
+    <t>Drone #3_4</t>
+  </si>
+  <si>
+    <t>Drone #3_5</t>
+  </si>
+  <si>
+    <t>Drone #4_1</t>
+  </si>
+  <si>
+    <t>Drone #4_2</t>
+  </si>
+  <si>
+    <t>Drone #4_3</t>
+  </si>
+  <si>
+    <t>Drone #4_4</t>
+  </si>
+  <si>
+    <t>Drone #5</t>
+  </si>
+  <si>
+    <t>Drone #1</t>
+  </si>
+  <si>
+    <t>Drone #2</t>
+  </si>
+  <si>
+    <t>Drone #3</t>
+  </si>
+  <si>
+    <t>Drone #4</t>
+  </si>
+  <si>
+    <t>Drone #5</t>
+  </si>
+  <si>
+    <t>Drone #1</t>
+  </si>
+  <si>
+    <t>Drone #2</t>
+  </si>
+  <si>
+    <t>Drone #3</t>
+  </si>
+  <si>
+    <t>Drone #4</t>
+  </si>
+  <si>
+    <t>Drone #5</t>
+  </si>
+  <si>
+    <t>Fire #1</t>
+  </si>
+  <si>
+    <t>Fire #2</t>
+  </si>
+  <si>
+    <t>Fire #3</t>
+  </si>
+  <si>
+    <t>Fire #4</t>
+  </si>
+  <si>
+    <t>Fire #5</t>
+  </si>
+  <si>
+    <t>Fire #6</t>
+  </si>
+  <si>
+    <t>Fire #7</t>
+  </si>
+  <si>
+    <t>Fire #8</t>
+  </si>
+  <si>
+    <t>Fire #9</t>
+  </si>
+  <si>
+    <t>Fire #10</t>
+  </si>
+  <si>
+    <t>Fire #11</t>
+  </si>
+  <si>
+    <t>Fire #12</t>
+  </si>
+  <si>
+    <t>Fire #13</t>
+  </si>
+  <si>
+    <t>Fire #14</t>
+  </si>
+  <si>
+    <t>Fire #15</t>
+  </si>
+  <si>
+    <t>timeElapsed</t>
+  </si>
+  <si>
+    <t>Drone #1_1</t>
+  </si>
+  <si>
+    <t>Drone #1_2</t>
+  </si>
+  <si>
+    <t>Drone #1_3</t>
+  </si>
+  <si>
+    <t>Drone #1_4</t>
+  </si>
+  <si>
+    <t>Drone #1_5</t>
+  </si>
+  <si>
+    <t>Drone #2_1</t>
+  </si>
+  <si>
+    <t>Drone #2_2</t>
+  </si>
+  <si>
+    <t>Drone #2_3</t>
+  </si>
+  <si>
+    <t>Drone #2_4</t>
+  </si>
+  <si>
+    <t>Drone #3_1</t>
+  </si>
+  <si>
+    <t>Drone #3_2</t>
+  </si>
+  <si>
+    <t>Drone #3_3</t>
+  </si>
+  <si>
+    <t>Drone #3_4</t>
+  </si>
+  <si>
+    <t>Drone #3_5</t>
+  </si>
+  <si>
+    <t>Drone #4_1</t>
+  </si>
+  <si>
+    <t>Drone #4_2</t>
+  </si>
+  <si>
+    <t>Drone #4_3</t>
+  </si>
+  <si>
+    <t>Drone #4_4</t>
+  </si>
+  <si>
+    <t>Drone #5</t>
+  </si>
+  <si>
+    <t>Drone #1</t>
+  </si>
+  <si>
+    <t>Drone #2</t>
+  </si>
+  <si>
+    <t>Drone #3</t>
+  </si>
+  <si>
+    <t>Drone #4</t>
+  </si>
+  <si>
+    <t>Drone #5</t>
+  </si>
+  <si>
+    <t>Drone #1</t>
+  </si>
+  <si>
+    <t>Drone #2</t>
+  </si>
+  <si>
+    <t>Drone #3</t>
+  </si>
+  <si>
+    <t>Drone #4</t>
+  </si>
+  <si>
+    <t>Drone #5</t>
+  </si>
+  <si>
+    <t>Fire #1</t>
+  </si>
+  <si>
+    <t>Fire #2</t>
+  </si>
+  <si>
+    <t>Fire #3</t>
+  </si>
+  <si>
+    <t>Fire #4</t>
+  </si>
+  <si>
+    <t>Fire #5</t>
+  </si>
+  <si>
+    <t>Fire #6</t>
+  </si>
+  <si>
+    <t>Fire #7</t>
+  </si>
+  <si>
+    <t>Fire #8</t>
+  </si>
+  <si>
+    <t>Fire #9</t>
+  </si>
+  <si>
+    <t>Fire #10</t>
+  </si>
+  <si>
+    <t>Fire #11</t>
+  </si>
+  <si>
+    <t>Fire #12</t>
+  </si>
+  <si>
+    <t>Fire #13</t>
+  </si>
+  <si>
+    <t>Fire #14</t>
+  </si>
+  <si>
+    <t>Fire #15</t>
+  </si>
+  <si>
+    <t>timeElapsed</t>
+  </si>
+  <si>
+    <t>Drone #1_1</t>
+  </si>
+  <si>
+    <t>Drone #1_2</t>
+  </si>
+  <si>
+    <t>Drone #1_3</t>
+  </si>
+  <si>
+    <t>Drone #1_4</t>
+  </si>
+  <si>
+    <t>Drone #1_5</t>
+  </si>
+  <si>
+    <t>Drone #2_1</t>
+  </si>
+  <si>
+    <t>Drone #2_2</t>
+  </si>
+  <si>
+    <t>Drone #2_3</t>
+  </si>
+  <si>
+    <t>Drone #2_4</t>
+  </si>
+  <si>
+    <t>Drone #3_1</t>
+  </si>
+  <si>
+    <t>Drone #3_2</t>
+  </si>
+  <si>
+    <t>Drone #3_3</t>
+  </si>
+  <si>
+    <t>Drone #3_4</t>
+  </si>
+  <si>
+    <t>Drone #3_5</t>
+  </si>
+  <si>
+    <t>Drone #4_1</t>
+  </si>
+  <si>
+    <t>Drone #4_2</t>
+  </si>
+  <si>
+    <t>Drone #4_3</t>
+  </si>
+  <si>
     <t>Drone #5_1</t>
   </si>
   <si>
     <t>Drone #5_2</t>
   </si>
   <si>
+    <t>Drone #1</t>
+  </si>
+  <si>
+    <t>Drone #2</t>
+  </si>
+  <si>
+    <t>Drone #3</t>
+  </si>
+  <si>
+    <t>Drone #4</t>
+  </si>
+  <si>
+    <t>Drone #5</t>
+  </si>
+  <si>
+    <t>Drone #1</t>
+  </si>
+  <si>
+    <t>Drone #2</t>
+  </si>
+  <si>
+    <t>Drone #3</t>
+  </si>
+  <si>
+    <t>Drone #4</t>
+  </si>
+  <si>
+    <t>Drone #5</t>
+  </si>
+  <si>
+    <t>Fire #1</t>
+  </si>
+  <si>
+    <t>Fire #2</t>
+  </si>
+  <si>
+    <t>Fire #3</t>
+  </si>
+  <si>
+    <t>Fire #4</t>
+  </si>
+  <si>
+    <t>Fire #5</t>
+  </si>
+  <si>
+    <t>Fire #6</t>
+  </si>
+  <si>
+    <t>Fire #7</t>
+  </si>
+  <si>
+    <t>Fire #8</t>
+  </si>
+  <si>
+    <t>Fire #9</t>
+  </si>
+  <si>
+    <t>Fire #10</t>
+  </si>
+  <si>
+    <t>Fire #11</t>
+  </si>
+  <si>
+    <t>Fire #12</t>
+  </si>
+  <si>
+    <t>Fire #13</t>
+  </si>
+  <si>
+    <t>Fire #14</t>
+  </si>
+  <si>
+    <t>Fire #15</t>
+  </si>
+  <si>
+    <t>timeElapsed</t>
+  </si>
+  <si>
+    <t>Drone #1_1</t>
+  </si>
+  <si>
+    <t>Drone #1_2</t>
+  </si>
+  <si>
+    <t>Drone #1_3</t>
+  </si>
+  <si>
+    <t>Drone #1_4</t>
+  </si>
+  <si>
+    <t>Drone #2_1</t>
+  </si>
+  <si>
+    <t>Drone #2_2</t>
+  </si>
+  <si>
+    <t>Drone #2_3</t>
+  </si>
+  <si>
+    <t>Drone #2_4</t>
+  </si>
+  <si>
+    <t>Drone #3_1</t>
+  </si>
+  <si>
+    <t>Drone #3_2</t>
+  </si>
+  <si>
+    <t>Drone #3_3</t>
+  </si>
+  <si>
+    <t>Drone #3_4</t>
+  </si>
+  <si>
+    <t>Drone #3_5</t>
+  </si>
+  <si>
+    <t>Drone #4_1</t>
+  </si>
+  <si>
+    <t>Drone #4_2</t>
+  </si>
+  <si>
+    <t>Drone #4_3</t>
+  </si>
+  <si>
+    <t>Drone #4_4</t>
+  </si>
+  <si>
+    <t>Drone #5_1</t>
+  </si>
+  <si>
+    <t>Drone #5_2</t>
+  </si>
+  <si>
+    <t>Drone #1</t>
+  </si>
+  <si>
+    <t>Drone #2</t>
+  </si>
+  <si>
+    <t>Drone #3</t>
+  </si>
+  <si>
+    <t>Drone #4</t>
+  </si>
+  <si>
+    <t>Drone #5</t>
+  </si>
+  <si>
+    <t>Drone #1</t>
+  </si>
+  <si>
+    <t>Drone #2</t>
+  </si>
+  <si>
+    <t>Drone #3</t>
+  </si>
+  <si>
+    <t>Drone #4</t>
+  </si>
+  <si>
+    <t>Drone #5</t>
+  </si>
+  <si>
+    <t>Fire #1</t>
+  </si>
+  <si>
+    <t>Fire #2</t>
+  </si>
+  <si>
+    <t>Fire #3</t>
+  </si>
+  <si>
+    <t>Fire #4</t>
+  </si>
+  <si>
+    <t>Fire #5</t>
+  </si>
+  <si>
+    <t>Fire #6</t>
+  </si>
+  <si>
+    <t>Fire #7</t>
+  </si>
+  <si>
+    <t>Fire #8</t>
+  </si>
+  <si>
+    <t>Fire #9</t>
+  </si>
+  <si>
+    <t>Fire #10</t>
+  </si>
+  <si>
+    <t>Fire #11</t>
+  </si>
+  <si>
+    <t>Fire #12</t>
+  </si>
+  <si>
+    <t>Fire #13</t>
+  </si>
+  <si>
+    <t>Fire #14</t>
+  </si>
+  <si>
+    <t>Fire #15</t>
+  </si>
+  <si>
+    <t>timeElapsed</t>
+  </si>
+  <si>
+    <t>Drone #1_1</t>
+  </si>
+  <si>
+    <t>Drone #1_2</t>
+  </si>
+  <si>
+    <t>Drone #1_3</t>
+  </si>
+  <si>
+    <t>Drone #1_4</t>
+  </si>
+  <si>
+    <t>Drone #1_5</t>
+  </si>
+  <si>
+    <t>Drone #2_1</t>
+  </si>
+  <si>
+    <t>Drone #2_2</t>
+  </si>
+  <si>
+    <t>Drone #2_3</t>
+  </si>
+  <si>
+    <t>Drone #2_4</t>
+  </si>
+  <si>
+    <t>Drone #3_1</t>
+  </si>
+  <si>
+    <t>Drone #3_2</t>
+  </si>
+  <si>
+    <t>Drone #3_3</t>
+  </si>
+  <si>
+    <t>Drone #3_4</t>
+  </si>
+  <si>
+    <t>Drone #4_1</t>
+  </si>
+  <si>
+    <t>Drone #4_2</t>
+  </si>
+  <si>
+    <t>Drone #4_3</t>
+  </si>
+  <si>
+    <t>Drone #4_4</t>
+  </si>
+  <si>
+    <t>Drone #5_1</t>
+  </si>
+  <si>
+    <t>Drone #5_2</t>
+  </si>
+  <si>
+    <t>Drone #1</t>
+  </si>
+  <si>
+    <t>Drone #2</t>
+  </si>
+  <si>
+    <t>Drone #3</t>
+  </si>
+  <si>
+    <t>Drone #4</t>
+  </si>
+  <si>
+    <t>Drone #5</t>
+  </si>
+  <si>
+    <t>Drone #1</t>
+  </si>
+  <si>
+    <t>Drone #2</t>
+  </si>
+  <si>
+    <t>Drone #3</t>
+  </si>
+  <si>
+    <t>Drone #4</t>
+  </si>
+  <si>
+    <t>Drone #5</t>
+  </si>
+  <si>
+    <t>Fire #1</t>
+  </si>
+  <si>
+    <t>Fire #2</t>
+  </si>
+  <si>
+    <t>Fire #3</t>
+  </si>
+  <si>
+    <t>Fire #4</t>
+  </si>
+  <si>
+    <t>Fire #5</t>
+  </si>
+  <si>
+    <t>Fire #6</t>
+  </si>
+  <si>
+    <t>Fire #7</t>
+  </si>
+  <si>
+    <t>Fire #8</t>
+  </si>
+  <si>
+    <t>Fire #9</t>
+  </si>
+  <si>
+    <t>Fire #10</t>
+  </si>
+  <si>
+    <t>Fire #11</t>
+  </si>
+  <si>
+    <t>Fire #12</t>
+  </si>
+  <si>
+    <t>Fire #13</t>
+  </si>
+  <si>
+    <t>Fire #14</t>
+  </si>
+  <si>
+    <t>Fire #15</t>
+  </si>
+  <si>
+    <t>timeElapsed</t>
+  </si>
+  <si>
+    <t>Drone #1_1</t>
+  </si>
+  <si>
+    <t>Drone #1_2</t>
+  </si>
+  <si>
+    <t>Drone #1_3</t>
+  </si>
+  <si>
+    <t>Drone #1_4</t>
+  </si>
+  <si>
+    <t>Drone #2_1</t>
+  </si>
+  <si>
+    <t>Drone #2_2</t>
+  </si>
+  <si>
+    <t>Drone #2_3</t>
+  </si>
+  <si>
+    <t>Drone #2_4</t>
+  </si>
+  <si>
+    <t>Drone #3_1</t>
+  </si>
+  <si>
+    <t>Drone #3_2</t>
+  </si>
+  <si>
+    <t>Drone #3_3</t>
+  </si>
+  <si>
+    <t>Drone #3_4</t>
+  </si>
+  <si>
+    <t>Drone #3_5</t>
+  </si>
+  <si>
+    <t>Drone #4_1</t>
+  </si>
+  <si>
+    <t>Drone #4_2</t>
+  </si>
+  <si>
+    <t>Drone #4_3</t>
+  </si>
+  <si>
+    <t>Drone #4_4</t>
+  </si>
+  <si>
+    <t>Drone #5_1</t>
+  </si>
+  <si>
+    <t>Drone #5_2</t>
+  </si>
+  <si>
+    <t>Drone #1</t>
+  </si>
+  <si>
+    <t>Drone #2</t>
+  </si>
+  <si>
+    <t>Drone #3</t>
+  </si>
+  <si>
+    <t>Drone #4</t>
+  </si>
+  <si>
+    <t>Drone #5</t>
+  </si>
+  <si>
+    <t>Drone #1</t>
+  </si>
+  <si>
+    <t>Drone #2</t>
+  </si>
+  <si>
+    <t>Drone #3</t>
+  </si>
+  <si>
+    <t>Drone #4</t>
+  </si>
+  <si>
+    <t>Drone #5</t>
+  </si>
+  <si>
+    <t>Fire #1</t>
+  </si>
+  <si>
+    <t>Fire #2</t>
+  </si>
+  <si>
+    <t>Fire #3</t>
+  </si>
+  <si>
+    <t>Fire #4</t>
+  </si>
+  <si>
+    <t>Fire #5</t>
+  </si>
+  <si>
+    <t>Fire #6</t>
+  </si>
+  <si>
+    <t>Fire #7</t>
+  </si>
+  <si>
+    <t>Fire #8</t>
+  </si>
+  <si>
+    <t>Fire #9</t>
+  </si>
+  <si>
+    <t>Fire #10</t>
+  </si>
+  <si>
+    <t>Fire #11</t>
+  </si>
+  <si>
+    <t>Fire #12</t>
+  </si>
+  <si>
+    <t>Fire #13</t>
+  </si>
+  <si>
+    <t>Fire #14</t>
+  </si>
+  <si>
+    <t>Fire #15</t>
+  </si>
+  <si>
+    <t>timeElapsed</t>
+  </si>
+  <si>
+    <t>Drone #1_1</t>
+  </si>
+  <si>
+    <t>Drone #1_2</t>
+  </si>
+  <si>
+    <t>Drone #1_3</t>
+  </si>
+  <si>
+    <t>Drone #2_1</t>
+  </si>
+  <si>
+    <t>Drone #2_2</t>
+  </si>
+  <si>
+    <t>Drone #2_3</t>
+  </si>
+  <si>
+    <t>Drone #2_4</t>
+  </si>
+  <si>
+    <t>Drone #3_1</t>
+  </si>
+  <si>
+    <t>Drone #3_2</t>
+  </si>
+  <si>
+    <t>Drone #3_3</t>
+  </si>
+  <si>
+    <t>Drone #3_4</t>
+  </si>
+  <si>
+    <t>Drone #4_1</t>
+  </si>
+  <si>
+    <t>Drone #4_2</t>
+  </si>
+  <si>
+    <t>Drone #4_3</t>
+  </si>
+  <si>
+    <t>Drone #4_4</t>
+  </si>
+  <si>
+    <t>Drone #5_1</t>
+  </si>
+  <si>
+    <t>Drone #5_2</t>
+  </si>
+  <si>
     <t>Drone #5_3</t>
   </si>
   <si>
+    <t>Drone #5_4</t>
+  </si>
+  <si>
     <t>Drone #1</t>
   </si>
   <si>
@@ -172,6 +1798,138 @@
     <t>Drone #2_3</t>
   </si>
   <si>
+    <t>Drone #3_1</t>
+  </si>
+  <si>
+    <t>Drone #3_2</t>
+  </si>
+  <si>
+    <t>Drone #3_3</t>
+  </si>
+  <si>
+    <t>Drone #3_4</t>
+  </si>
+  <si>
+    <t>Drone #4_1</t>
+  </si>
+  <si>
+    <t>Drone #4_2</t>
+  </si>
+  <si>
+    <t>Drone #4_3</t>
+  </si>
+  <si>
+    <t>Drone #4_4</t>
+  </si>
+  <si>
+    <t>Drone #5_1</t>
+  </si>
+  <si>
+    <t>Drone #5_2</t>
+  </si>
+  <si>
+    <t>Drone #5_3</t>
+  </si>
+  <si>
+    <t>Drone #5_4</t>
+  </si>
+  <si>
+    <t>Drone #1</t>
+  </si>
+  <si>
+    <t>Drone #2</t>
+  </si>
+  <si>
+    <t>Drone #3</t>
+  </si>
+  <si>
+    <t>Drone #4</t>
+  </si>
+  <si>
+    <t>Drone #5</t>
+  </si>
+  <si>
+    <t>Drone #1</t>
+  </si>
+  <si>
+    <t>Drone #2</t>
+  </si>
+  <si>
+    <t>Drone #3</t>
+  </si>
+  <si>
+    <t>Drone #4</t>
+  </si>
+  <si>
+    <t>Drone #5</t>
+  </si>
+  <si>
+    <t>Fire #1</t>
+  </si>
+  <si>
+    <t>Fire #2</t>
+  </si>
+  <si>
+    <t>Fire #3</t>
+  </si>
+  <si>
+    <t>Fire #4</t>
+  </si>
+  <si>
+    <t>Fire #5</t>
+  </si>
+  <si>
+    <t>Fire #6</t>
+  </si>
+  <si>
+    <t>Fire #7</t>
+  </si>
+  <si>
+    <t>Fire #8</t>
+  </si>
+  <si>
+    <t>Fire #9</t>
+  </si>
+  <si>
+    <t>Fire #10</t>
+  </si>
+  <si>
+    <t>Fire #11</t>
+  </si>
+  <si>
+    <t>Fire #12</t>
+  </si>
+  <si>
+    <t>Fire #13</t>
+  </si>
+  <si>
+    <t>Fire #14</t>
+  </si>
+  <si>
+    <t>Fire #15</t>
+  </si>
+  <si>
+    <t>timeElapsed</t>
+  </si>
+  <si>
+    <t>Drone #1_1</t>
+  </si>
+  <si>
+    <t>Drone #1_2</t>
+  </si>
+  <si>
+    <t>Drone #1_3</t>
+  </si>
+  <si>
+    <t>Drone #2_1</t>
+  </si>
+  <si>
+    <t>Drone #2_2</t>
+  </si>
+  <si>
+    <t>Drone #2_3</t>
+  </si>
+  <si>
     <t>Drone #2_4</t>
   </si>
   <si>
@@ -208,139 +1966,7 @@
     <t>Drone #5_3</t>
   </si>
   <si>
-    <t>Drone #1</t>
-  </si>
-  <si>
-    <t>Drone #2</t>
-  </si>
-  <si>
-    <t>Drone #3</t>
-  </si>
-  <si>
-    <t>Drone #4</t>
-  </si>
-  <si>
-    <t>Drone #5</t>
-  </si>
-  <si>
-    <t>Drone #1</t>
-  </si>
-  <si>
-    <t>Drone #2</t>
-  </si>
-  <si>
-    <t>Drone #3</t>
-  </si>
-  <si>
-    <t>Drone #4</t>
-  </si>
-  <si>
-    <t>Drone #5</t>
-  </si>
-  <si>
-    <t>Fire #1</t>
-  </si>
-  <si>
-    <t>Fire #2</t>
-  </si>
-  <si>
-    <t>Fire #3</t>
-  </si>
-  <si>
-    <t>Fire #4</t>
-  </si>
-  <si>
-    <t>Fire #5</t>
-  </si>
-  <si>
-    <t>Fire #6</t>
-  </si>
-  <si>
-    <t>Fire #7</t>
-  </si>
-  <si>
-    <t>Fire #8</t>
-  </si>
-  <si>
-    <t>Fire #9</t>
-  </si>
-  <si>
-    <t>Fire #10</t>
-  </si>
-  <si>
-    <t>Fire #11</t>
-  </si>
-  <si>
-    <t>Fire #12</t>
-  </si>
-  <si>
-    <t>Fire #13</t>
-  </si>
-  <si>
-    <t>Fire #14</t>
-  </si>
-  <si>
-    <t>Fire #15</t>
-  </si>
-  <si>
-    <t>timeElapsed</t>
-  </si>
-  <si>
-    <t>Drone #1_1</t>
-  </si>
-  <si>
-    <t>Drone #1_2</t>
-  </si>
-  <si>
-    <t>Drone #1_3</t>
-  </si>
-  <si>
-    <t>Drone #1_4</t>
-  </si>
-  <si>
-    <t>Drone #2_1</t>
-  </si>
-  <si>
-    <t>Drone #2_2</t>
-  </si>
-  <si>
-    <t>Drone #2_3</t>
-  </si>
-  <si>
-    <t>Drone #2_4</t>
-  </si>
-  <si>
-    <t>Drone #3_1</t>
-  </si>
-  <si>
-    <t>Drone #3_2</t>
-  </si>
-  <si>
-    <t>Drone #3_3</t>
-  </si>
-  <si>
-    <t>Drone #3_4</t>
-  </si>
-  <si>
-    <t>Drone #4_1</t>
-  </si>
-  <si>
-    <t>Drone #4_2</t>
-  </si>
-  <si>
-    <t>Drone #4_3</t>
-  </si>
-  <si>
-    <t>Drone #4_4</t>
-  </si>
-  <si>
-    <t>Drone #5_1</t>
-  </si>
-  <si>
-    <t>Drone #5_2</t>
-  </si>
-  <si>
-    <t>Drone #5_3</t>
+    <t>Drone #5_4</t>
   </si>
   <si>
     <t>Drone #1</t>
@@ -424,7 +2050,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -439,7 +2065,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="71">
     <border>
       <left/>
       <right/>
@@ -462,11 +2088,66 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -483,329 +2164,695 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S14"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:S2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.34765625" customWidth="true"/>
-    <col min="2" max="2" width="6.7109375" customWidth="true"/>
-    <col min="3" max="3" width="6.7109375" customWidth="true"/>
-    <col min="4" max="4" width="6.7109375" customWidth="true"/>
-    <col min="5" max="5" width="6.7109375" customWidth="true"/>
-    <col min="6" max="6" width="6.7109375" customWidth="true"/>
-    <col min="7" max="7" width="6.7109375" customWidth="true"/>
-    <col min="8" max="8" width="6.7109375" customWidth="true"/>
-    <col min="9" max="9" width="6.7109375" customWidth="true"/>
-    <col min="10" max="10" width="7.7109375" customWidth="true"/>
-    <col min="11" max="11" width="7.7109375" customWidth="true"/>
-    <col min="12" max="12" width="7.7109375" customWidth="true"/>
-    <col min="13" max="13" width="7.7109375" customWidth="true"/>
-    <col min="14" max="14" width="7.7109375" customWidth="true"/>
-    <col min="15" max="15" width="7.7109375" customWidth="true"/>
-    <col min="16" max="16" width="10.8046875" customWidth="true"/>
-    <col min="17" max="17" width="10.8046875" customWidth="true"/>
-    <col min="18" max="18" width="10.8046875" customWidth="true"/>
-    <col min="19" max="19" width="10.8046875" customWidth="true"/>
+    <col min="1" max="1" width="10.7109375" customWidth="true"/>
+    <col min="2" max="2" width="6.44921875" customWidth="true"/>
+    <col min="3" max="3" width="6.44921875" customWidth="true"/>
+    <col min="4" max="4" width="6.44921875" customWidth="true"/>
+    <col min="5" max="5" width="6.44921875" customWidth="true"/>
+    <col min="6" max="6" width="6.44921875" customWidth="true"/>
+    <col min="7" max="7" width="6.44921875" customWidth="true"/>
+    <col min="8" max="8" width="6.44921875" customWidth="true"/>
+    <col min="9" max="9" width="6.44921875" customWidth="true"/>
+    <col min="10" max="10" width="7.44921875" customWidth="true"/>
+    <col min="11" max="11" width="7.44921875" customWidth="true"/>
+    <col min="12" max="12" width="7.44921875" customWidth="true"/>
+    <col min="13" max="13" width="7.44921875" customWidth="true"/>
+    <col min="14" max="14" width="7.44921875" customWidth="true"/>
+    <col min="15" max="15" width="7.44921875" customWidth="true"/>
+    <col min="16" max="16" width="10.34375" customWidth="true"/>
+    <col min="17" max="17" width="10.34375" customWidth="true"/>
+    <col min="18" max="18" width="10.34375" customWidth="true"/>
+    <col min="19" max="19" width="10.34375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>90</v>
+        <v>630</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>91</v>
+        <v>631</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>92</v>
+        <v>632</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>93</v>
+        <v>633</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>94</v>
+        <v>634</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>95</v>
+        <v>635</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>96</v>
+        <v>636</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>97</v>
+        <v>637</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>98</v>
+        <v>638</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>99</v>
+        <v>639</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>100</v>
+        <v>640</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>101</v>
+        <v>641</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>102</v>
+        <v>642</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>103</v>
+        <v>643</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>104</v>
+        <v>644</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>105</v>
+        <v>645</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>106</v>
+        <v>646</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>107</v>
+        <v>647</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>108</v>
+        <v>648</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
+        <v>12</v>
+      </c>
+      <c r="B2" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0">
+        <v>6.0033333333333339</v>
+      </c>
+      <c r="D2" s="0">
+        <v>13</v>
+      </c>
+      <c r="E2" s="0">
+        <v>11</v>
+      </c>
+      <c r="F2" s="0">
         <v>8</v>
       </c>
-      <c r="B2" s="0">
-        <v>14</v>
-      </c>
-      <c r="C2" s="0">
+      <c r="G2" s="0">
+        <v>6.0381818181818181</v>
+      </c>
+      <c r="H2" s="0">
         <v>4</v>
       </c>
-      <c r="D2" s="0">
-        <v>3.0166738660907129</v>
-      </c>
-      <c r="E2" s="0">
-        <v>13</v>
-      </c>
-      <c r="F2" s="0">
+      <c r="I2" s="0">
         <v>7</v>
-      </c>
-      <c r="G2" s="0">
-        <v>11</v>
-      </c>
-      <c r="H2" s="0">
-        <v>3.0253131749460045</v>
-      </c>
-      <c r="I2" s="0">
-        <v>6</v>
       </c>
       <c r="J2" s="0">
         <v>10</v>
       </c>
       <c r="K2" s="0">
+        <v>6.0215151515151515</v>
+      </c>
+      <c r="L2" s="0">
+        <v>3</v>
+      </c>
+      <c r="M2" s="0">
         <v>9</v>
       </c>
-      <c r="L2" s="0">
-        <v>3.1073866090712743</v>
-      </c>
-      <c r="M2" s="0">
-        <v>5</v>
-      </c>
       <c r="N2" s="0">
+        <v>14</v>
+      </c>
+      <c r="O2" s="0">
+        <v>6.2669696969696975</v>
+      </c>
+      <c r="P2" s="0">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="0">
+        <v>15</v>
+      </c>
+      <c r="R2" s="0">
         <v>1</v>
       </c>
-      <c r="O2" s="0">
-        <v>12</v>
-      </c>
-      <c r="P2" s="0">
-        <v>3.2499352051835855</v>
-      </c>
-      <c r="Q2" s="0">
-        <v>2</v>
-      </c>
-      <c r="R2" s="0">
-        <v>15</v>
-      </c>
       <c r="S2" s="0">
-        <v>3.6006911447084233</v>
+        <v>6.669999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>109</v>
+        <v>649</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>110</v>
+        <v>650</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>111</v>
+        <v>651</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>112</v>
+        <v>652</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>113</v>
+        <v>653</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>16.686000000000003</v>
+        <v>27.610000000000007</v>
       </c>
       <c r="B5" s="0">
-        <v>16.686000000000003</v>
+        <v>27.610000000000007</v>
       </c>
       <c r="C5" s="0">
-        <v>16.686000000000003</v>
+        <v>27.610000000000007</v>
       </c>
       <c r="D5" s="0">
-        <v>16.686000000000003</v>
+        <v>27.610000000000007</v>
       </c>
       <c r="E5" s="0">
-        <v>16.686000000000003</v>
+        <v>27.610000000000007</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>114</v>
+        <v>654</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>115</v>
+        <v>655</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>116</v>
+        <v>656</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>117</v>
+        <v>657</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>118</v>
+        <v>658</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>3.7564497444344775</v>
+        <v>0</v>
       </c>
       <c r="B8" s="0">
-        <v>4.3930897066915184</v>
+        <v>0</v>
       </c>
       <c r="C8" s="0">
-        <v>7.4418307609930867</v>
+        <v>0</v>
       </c>
       <c r="D8" s="0">
-        <v>10.261560517709526</v>
+        <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>18.132534187156701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>119</v>
+        <v>659</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>120</v>
+        <v>660</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>121</v>
+        <v>661</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>122</v>
+        <v>662</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>123</v>
+        <v>663</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>124</v>
+        <v>664</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>125</v>
+        <v>665</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>126</v>
+        <v>666</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>127</v>
+        <v>667</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>128</v>
+        <v>668</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>129</v>
+        <v>669</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>130</v>
+        <v>670</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>131</v>
+        <v>671</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>132</v>
+        <v>672</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>133</v>
+        <v>673</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>7.75</v>
+        <v>2</v>
       </c>
       <c r="B11" s="0">
-        <v>1.78</v>
+        <v>1.5</v>
       </c>
       <c r="C11" s="0">
-        <v>23.149999999999999</v>
+        <v>5</v>
       </c>
       <c r="D11" s="0">
-        <v>6.0999999999999996</v>
+        <v>4.7000000000000002</v>
       </c>
       <c r="E11" s="0">
+        <v>1.5</v>
+      </c>
+      <c r="F11" s="0">
+        <v>33</v>
+      </c>
+      <c r="G11" s="0">
+        <v>16.699999999999999</v>
+      </c>
+      <c r="H11" s="0">
+        <v>6</v>
+      </c>
+      <c r="I11" s="0">
+        <v>2.5</v>
+      </c>
+      <c r="J11" s="0">
+        <v>5.5</v>
+      </c>
+      <c r="K11" s="0">
+        <v>12.75</v>
+      </c>
+      <c r="L11" s="0">
+        <v>26</v>
+      </c>
+      <c r="M11" s="0">
+        <v>7.5999999999999996</v>
+      </c>
+      <c r="N11" s="0">
+        <v>11.300000000000001</v>
+      </c>
+      <c r="O11" s="0">
         <v>2</v>
-      </c>
-      <c r="F11" s="0">
-        <v>11.1</v>
-      </c>
-      <c r="G11" s="0">
-        <v>4.2000000000000002</v>
-      </c>
-      <c r="H11" s="0">
-        <v>3</v>
-      </c>
-      <c r="I11" s="0">
-        <v>1.3</v>
-      </c>
-      <c r="J11" s="0">
-        <v>1.8</v>
-      </c>
-      <c r="K11" s="0">
-        <v>3.5</v>
-      </c>
-      <c r="L11" s="0">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="M11" s="0">
-        <v>8.4000000000000004</v>
-      </c>
-      <c r="N11" s="0">
-        <v>7.2000000000000002</v>
-      </c>
-      <c r="O11" s="0">
-        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>134</v>
+        <v>674</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>30.929353299999999</v>
+        <v>168.3238911</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>